--- a/Task.BA/Task.BA.xlsx
+++ b/Task.BA/Task.BA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267EC7B3-157F-43BB-AB16-2D32BEE286DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64965A2E-433F-44FE-9A70-93AFAEE672CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 task" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>“An online application charges customers to ship purchased items, based on the following criteria:</t>
   </si>
@@ -214,22 +214,6 @@
     </r>
   </si>
   <si>
-    <t>1.	Correct the following requirements and describe issues that will be found.
-“Daily Threshold represents the $ limit for all orders that has been submitted within current day. Day is considered as calendar day that starts at the midnight by our time. In case total of purchase within one day is more,  than Threshold value, then the Daily Thresholds is considered as exceeded.
-For example: Daily Threshold is set $100. 
-First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM  the same date with €50 total,  then Threshold is exceeded”.
-1.	Daily Threshold – who and how should add this value?
-2.	$ limit –$ means money, or dollars like main currency type?
-3.	at the midnight by our time – our time means users time zone or owners time zone and how it works: users accept request on use cookie files or they add their time zone themselves, or there is some specific(certain) time zone.
-4.	Is considered as exceeded – what we should see after this action? What message and what text should displayed on the display?
-5.	$100 - $100 should be accepted or not
-6.	€50 you should use same currency type or add some link to actual exchange rate.
-7.	Does it matter, how much items include current order? How many items can be in one order?
-     Daily Threshold should add user in his account with limit from $0 till $1000000. If user does not change his limit than Daily Threshold is $100. Daily Threshold represents the money limit in dollars (if the user uses a different currency, then the conversion takes place at the exchange rate of the user's bank) for all orders that has been submitted within current day from 00:00:00 a.m. till 00:00:00 p.m. Day is considered as calendar day that starts at the midnight by users time zone (users can accept request on use cookie files or they add their time zone in their account themselves) if it is not specified, then site uses the UTC 0 time zone. In case total of purchase within one day is more, than Threshold value, then the Daily Thresholds is considered as exceeded and the user cannot buy any products if their summary price value is more than Daily Threshold. Threshold is exceeded and last operation return error message "Your Daily Threshold is $100. Your summary price value is more than $100.  Please change your last order".
-     For example: Daily Threshold is set $100. 
-     First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM the same date with $65 total, then Threshold is exceeded and last operation return error message "Your Daily Threshold is $100. Your summary price value is more than $100.  Please change your last order"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> Check that page is requested with valid language/country section when user is logged in and requested country equals to profile </t>
     </r>
@@ -255,12 +239,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. It should be redirect to URL in originalItemPath parameter</t>
   </si>
   <si>
     <t>Check that page is requested with invalid language/country section and language is valid</t>
@@ -283,12 +261,6 @@
 4. Check that Language is invalid</t>
   </si>
   <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. It shoud be redirected to country section with organizationItemPath invalid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Check that page is requested with valid language/country section when user is not logged in
 </t>
   </si>
@@ -393,20 +365,8 @@
   <si>
     <t>1. Requested page should be opened
 2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
-3. The user should be logged in
-4. Cookie should be with a Store value a</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
 3. The user should be logged off
 4. Cookie should be without a Store value and google bot should be disabled. The user should be redirected to country selection with originalItemPath value.</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The language should be valid  and the user should be redirected to country section with rganizationItemPath value</t>
   </si>
   <si>
     <t>1. Requested page should be opened
@@ -445,6 +405,216 @@
 2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
 3. The user should be logged off
 4. Cookie should be with a Store value and the user should be redirected to user's language-store</t>
+  </si>
+  <si>
+    <t>1. Requested page should be opened
+2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
+3. Format of [language]/[country]/ section should be correct
+4. The language should be valid  and the user should be redirected to country section with originalItemPath value</t>
+  </si>
+  <si>
+    <t>1. Requested page should be opened
+2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
+3. Format of [language]/[country]/ section should be correct
+4. It should throw 404 error</t>
+  </si>
+  <si>
+    <t>1. Requested page should be opened
+2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ section
+3. Format of [language]/[country]/ section should be correct
+4. It should be redirect to URL in originalItemPath parameter</t>
+  </si>
+  <si>
+    <t>1. Requested page should be opened
+2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
+3. The user should be logged in
+4. Cookie should be with a Store value and the user should be redirected to default language-store</t>
+  </si>
+  <si>
+    <t>1. Requested page should be opened
+2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
+3. Format of [language]/[country]/ section should be correct
+4. The user should be redirect to URL in originalItemPath parameter</t>
+  </si>
+  <si>
+    <t>Complete                         полный
+Correct                              Верный
+Unambiguous                  недвусмысленный
+Consistent                         последовательный
+Verifiable                          проверяемый
+Prioritization                   Приоритезация</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.	Correct the following requirements and describe issues that will be found.
+“Daily Threshold represents the $ limit for all orders that has been submitted within current day. Day is considered as calendar day that starts at the midnight by our time. In case total of purchase within one day is more,  than Threshold value, then the Daily Thresholds is considered as exceeded.
+For example: Daily Threshold is set $100. 
+First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM  the same date with €50 total,  then Threshold is exceeded”.
+1.	Daily Threshold – who and how should add this value?  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is not coplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.	$ limit –$ means money, or dollars like main currency type?  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unambiguous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.	at the midnight by our time – our time means users time zone or owners time zone and how it works: users accept request on use cookie files or they add their time zone themselves, or there is some specific(certain) time zone. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it is unambiguous, incorrect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.	Is considered as exceeded – what we should see after this action? What message and what text should displayed on the display? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- incomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.	$100 - $100 should be accepted or not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- incomplete, unambiguous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.	€50 you should use same currency type or add some link to actual exchange rate. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- incomplete.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7.	Does it matter, how much items include current order? How many items can be in one order?  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- incomplete.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Daily Threshold should add user in his account with limit from $0 till $1000000. If user does not change his limit than Daily Threshold is $100. Daily Threshold represents the money limit in dollars (if the user uses a different currency, then the conversion takes place at the exchange rate of the user's bank) for all orders that has been submitted within current day from 00:00:00 a.m. till 00:00:00 p.m. Day is considered as calendar day that starts at the midnight by users time zone (users can accept request on use cookie files or they add their time zone in their account themselves) if it is not specified, then site uses the UTC 0 time zone. In case total of purchase within one day is more, than Threshold value, then the Daily Thresholds is considered as exceeded and the user cannot buy any products if their summary price value is more than Daily Threshold. Threshold is exceeded and last operation return error message "Your Daily Threshold is $100. Your summary price value is more than $100.  Please change your last order".
+     For example: Daily Threshold is set $100. 
+     First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM the same date with $65 total, then Threshold is exceeded and last operation return error message "Your Daily Threshold is $100. Your summary price value is more than $100.  Please change your last order"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -561,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -572,7 +742,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,8 +790,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,24 +1073,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE78EF7-99BF-403D-B9C3-5787368EC2A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139" customWidth="1"/>
+    <col min="1" max="1" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
+      <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -943,19 +1116,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -963,19 +1136,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
         <v>43363.470833333333</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -983,19 +1156,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
         <v>43363.472222222219</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1003,19 +1176,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
         <v>43363.474999999999</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1023,19 +1196,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
         <v>43363.476388888892</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1043,19 +1216,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
         <v>43363.477083333331</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1063,53 +1236,53 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
         <v>43363.478472222225</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
         <v>43363.479861111111</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
         <v>43363.481249999997</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1123,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977B56E4-3945-4FDB-B019-47A3795DDAF8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,278 +1312,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="C11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13" t="s">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="13">
         <v>43363.470833333333</v>
       </c>
     </row>
@@ -1424,111 +1597,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF90BAE-F59E-4E65-B1A7-F447E917EADA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="2.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="18">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="19">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13">
         <v>43363.470833333333</v>
       </c>
     </row>

--- a/Task.BA/Task.BA.xlsx
+++ b/Task.BA/Task.BA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64965A2E-433F-44FE-9A70-93AFAEE672CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A9CFB-DF05-4FB7-B296-76237AD7EE43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 task" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>“An online application charges customers to ship purchased items, based on the following criteria:</t>
   </si>
@@ -435,14 +435,6 @@
 2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
 3. Format of [language]/[country]/ section should be correct
 4. The user should be redirect to URL in originalItemPath parameter</t>
-  </si>
-  <si>
-    <t>Complete                         полный
-Correct                              Верный
-Unambiguous                  недвусмысленный
-Consistent                         последовательный
-Verifiable                          проверяемый
-Prioritization                   Приоритезация</t>
   </si>
   <si>
     <r>
@@ -1075,7 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE78EF7-99BF-403D-B9C3-5787368EC2A4}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1084,13 +1078,11 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977B56E4-3945-4FDB-B019-47A3795DDAF8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF90BAE-F59E-4E65-B1A7-F447E917EADA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Task.BA/Task.BA.xlsx
+++ b/Task.BA/Task.BA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A9CFB-DF05-4FB7-B296-76237AD7EE43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59602137-C252-4ECB-B23C-5EA42001C54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 task" sheetId="3" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE78EF7-99BF-403D-B9C3-5787368EC2A4}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF90BAE-F59E-4E65-B1A7-F447E917EADA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">

--- a/Task.BA/Task.BA.xlsx
+++ b/Task.BA/Task.BA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59602137-C252-4ECB-B23C-5EA42001C54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060299-8035-407D-8D5C-1B0FE61B73B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 task" sheetId="3" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF90BAE-F59E-4E65-B1A7-F447E917EADA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Task.BA/Task.BA.xlsx
+++ b/Task.BA/Task.BA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060299-8035-407D-8D5C-1B0FE61B73B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 task" sheetId="3" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>“An online application charges customers to ship purchased items, based on the following criteria:</t>
   </si>
@@ -110,21 +109,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
+    <t>Check that shipping cost is $7 when the user buy 1 item.</t>
+  </si>
+  <si>
+    <t>Check that shipping cost is $7 when the user buy 5 items.</t>
+  </si>
+  <si>
+    <t>Check that shipping cost is $5 when the user buy 6 items.</t>
+  </si>
+  <si>
+    <t>Check that shipping cost is $5 when the user buy 9 items.</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -132,309 +145,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>special shipping cost is 2% from 10 till 15 items</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>special shipping cost is 5% for more than 15 items”</t>
-    </r>
-  </si>
-  <si>
-    <t>Check that shipping cost is $7 when the user buy 1 item.</t>
-  </si>
-  <si>
-    <t>Check that shipping cost is $7 when the user buy 5 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping cost is $5 when the user buy 6 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping cost is $5 when the user buy 9 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping discount is 2% when the user buy 10 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping discount is 2% when the user buy 14 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping discount is 5% when the user buy 15 items.</t>
-  </si>
-  <si>
-    <t>Check that shipping discount is 5% when the user buy 20 items.</t>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Create possible verifications to the following requirements:</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Check that page is requested with valid language/country section when user is logged in and requested country equals to profile </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>country</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Check that page is requested with invalid language/country section and language is valid</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is invalid
-4. Check that Language is valid</t>
-  </si>
-  <si>
-    <t>Check that page is requested with invalid language/country section and language is invalid</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is invalid
-4. Check that Language is invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check that page is requested with valid language/country section when user is not logged in
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check that page is requested with valid language/country section when user is logged in and his store parameter differs in user profile
-</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is correct
-4. Check that user can Logged in and his store parameter differs in user profile</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Check that page is requested with valid language/country section when user is logged in and requested country is not equal to profile </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>country</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is correct
-4. Check that user can Logged in and his country is not equal to language-store in "originalItemPath=/language-store/..." URL parameter</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is correct
-4. Check that user can Logged in and his country is equal to language-store in "originalItemPath=/language-store/..." URL parameter</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check if URL contains: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Check that format of [language]/[country]/ section is correct
-4. Check that user is not Logged in</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. It should be show "Change country" message and set country store cookie with rendered page</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The user should be logged in and set country store cookie and rendered page</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The user should be logged in and redirected to users profile and update language_store with users store and add "?originalItemPath=/language-store/..." URL parameter</t>
-  </si>
-  <si>
-    <t>Check that redirect to default language-store happens when URL does not contains 
-language-store part, user is logged off and google bot is active</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check that URL is not contain: [protocol]://[domain-name]/[language]/[country]/ section
-3. Check that user is not logged in
-4. Check that cookie has not a Store value and google bot is disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check that page is requested without language-store parameters when user is not logged in without store value and google bot is disabled</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check that URL is not contain: [protocol]://[domain-name]/[language]/[country]/ section
-3. Check that user is logged in
-4. Check that cookie has a Store value</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
-3. The user should be logged off
-4. Cookie should be without a Store value and google bot should be disabled. The user should be redirected to country selection with originalItemPath value.</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The user is not logged in and he should set country store cookie and his page rendered.</t>
-  </si>
-  <si>
-    <t>Check that redirect to user's language-store happens when URL does not contains
-language-store part and the user is logged in.</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check that URL is not contain: [protocol]://[domain-name]/[language]/[country]/ section
-3. Check that user is logged in</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
-3. The user should be logged in and he should be redirected to user's language-store</t>
-  </si>
-  <si>
-    <t>Check that redirect to user's language-store happens when URL does not contains
-language-store part, the user are logged off and cookie has a Store value.</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Request a page
-2. Check that URL is not contain: [protocol]://[domain-name]/[language]/[country]/ section
-3. Check that user is logged off
-4. Check that cookie has a Store value</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
-3. The user should be logged off
-4. Cookie should be with a Store value and the user should be redirected to user's language-store</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The language should be valid  and the user should be redirected to country section with originalItemPath value</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. It should throw 404 error</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ section
-3. Format of [language]/[country]/ section should be correct
-4. It should be redirect to URL in originalItemPath parameter</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should not contain: [protocol]://[domain-name]/[language]/[country]/ sections
-3. The user should be logged in
-4. Cookie should be with a Store value and the user should be redirected to default language-store</t>
-  </si>
-  <si>
-    <t>1. Requested page should be opened
-2. URL should be contained: [protocol]://[domain-name]/[language]/[country]/ sections corrects
-3. Format of [language]/[country]/ section should be correct
-4. The user should be redirect to URL in originalItemPath parameter</t>
   </si>
   <si>
     <r>
@@ -608,12 +320,1614 @@
      First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM the same date with $65 total, then Threshold is exceeded and last operation return error message "Your Daily Threshold is $100. Your summary price value is more than $100.  Please change your last order"</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special shipping cost is 4.90$ from 10 till 15 items</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that shipping discount is $4.75 when the user buy 20 items.</t>
+  </si>
+  <si>
+    <t>Check that shipping discount is $4.75 when the user buy 15 items.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special shipping cost is 4.75$ for 15 and more items”</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that shipping discount is $4.90 when the user buy 14 items.</t>
+  </si>
+  <si>
+    <t>Check that shipping discount is $4.90 when the user buy 10 items.</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Verify that with 0 items, the purchase button is not available</t>
+  </si>
+  <si>
+    <t>Check that it is impossible to enter a negative value in the quantity field</t>
+  </si>
+  <si>
+    <t>Check that it is impossible to enter characters in the quantity of goods</t>
+  </si>
+  <si>
+    <t>Check that it is impossible to enter a fractional number in the quantity of goods</t>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/[language]/[country]/ and format of [language]/[country]/ section should be correct
+2. The user should be logged in and his country is equal to language-store in "originalItemPath=/language-store/..." URL parameter. It should be redirected to URL in originalItemPath parameter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/[language]/[country]/</t>
+    </r>
+  </si>
+  <si>
+    <t>1.  The URL: [protocol]://[domain-name]/[language]/[country]/ should be entered and format of [language]/[country]/ section should be invalid. The language should be valid  and the user should be redirected to country section with originalItemPath value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>uk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1. The URL: [protocol]://[domain-name]/[language]/[country]/ should be entered and format of [language]/[country]/ section should be invalid. The language should be invalid  and the user should be redirected to page which throw 404 error.</t>
+  </si>
+  <si>
+    <r>
+      <t>Check that page is requested with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> invalid language/country </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">section and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>language is invalid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check that page is requested with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">invalid language/country </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>section and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> language is valid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valid language/country </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>section when user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is logged in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> requested country equals to profile country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>valid language/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> section when user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>is not logged in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Preconditions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">User not logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/[language]/[country]/
+2. Enter the login, password and click on the "Submit" button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valid language/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> section when user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and his </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">store parameter differs in user profile
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check that page is requested with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valid language/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> section when user is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>logged in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">requested country is not equal to profile country
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check that redirect to default language-store happens when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL does not contains 
+language-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> part, user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>google bot is active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check that redirect to user's language-store happens when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">URL does not contains
+language-store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>part, the user are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cookie has a Store value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check that redirect to user's language-store happens when</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> URL does not contains
+language-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> part and the user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged in.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> without language-store parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> when user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>without store value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> google bot is disabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Preconditions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">User not logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/[language]/[country]/
+2. Set country store cookie
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/[language]/[country]/ and format of [language]/[country]/ section should be valid
+2. The user should not be logged in and he should set country store cookie, his page should be rendered.</t>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/[language]/[country]/ and format of [language]/[country]/ section should be correct. The user should be logged in and redirected to users profile and update language_store with users store and add "?originalItemPath=/language-store/..." URL parameter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/[language]/[country]/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/[language]/[country]/
+2. Set country store cookie</t>
+    </r>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/[language]/[country]/ and format of [language]/[country]/ section should be valid . The user should be logged in and his country is not equal to language-store in "originalItemPath=/language-store/..." URL parameter. The message "change country" should be displayed.
+2. The user should be logged in and he should set country store cookie, his page should be rendered.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]</t>
+    </r>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/  
+The user should be logged in and he should be redirected to user's language-store</t>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/  
+The user should be logged off. Cookie should be with a Store value and the user should be redirected to user's language-store</t>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/  
+The user should be logged off. Cookie should be without a Store value. Google bot should be active and the user should be redirected to default language-store</t>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/  
+The user should not be logged in. Cookie should be without a Store value. Google bot should be disabled and the user should be redirected to country-selection with originallItemPathvalue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Credentials:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Login: test1
+Password: 123456a
+Profile Country: USA
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/us/
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valid language/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> section when user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged in from different location
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Credentials:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Login: test1
+Password: 123456a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Country:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Spain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Check that page is requested with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>valid language/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> section when user is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> logged in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and his </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>store parameter is not differs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in user profile
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. URL should contain: [protocol]://[domain-name]/[language]/[country]/ and format of [language]/[country]/ section should be valid 
+2. The user should be logged in and he should set country store cookie, his page should be rendered.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Credentials:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Login: test1
+Password: 123456a
+Profile Country: USA
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Credentials:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Login: test1
+Password: 123456a
+Profile country: Spain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">User Credentials:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Login: test1
+Password: 123456a
+Profile country: USA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User's language-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: /en/us/
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User not logged in, cookie has a Store value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User not logged in, Google bot is active, cookie has a Store value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+User not logged in, cookie has not a Store value, Google bot is disabled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Enter the URL that contains: [protocol]://[domain-name]/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[language]/[country]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Credentials:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Login: test1
+Password: 123456a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Store parameter:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Country: ua
+Language: uk
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User's language-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cookie store value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Country: us
+Language: en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Default language-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: /en/us/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cookie store value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Country: us
+Language: en</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,13 +1990,39 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +2032,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +2069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -734,55 +2080,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,12 +2413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE78EF7-99BF-403D-B9C3-5787368EC2A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1077,12 +2424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,56 +2438,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>43363.470833333333</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1148,19 +2495,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43363.472222222219</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1168,19 +2515,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>43363.474999999999</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1188,95 +2535,175 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>43363.476388888892</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>43363.477083333331</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43363.478472222225</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43363.479861111111</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
-        <v>43363.478472222225</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D9" s="8">
+        <v>43363.481249999997</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
-        <v>43363.479861111111</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D10" s="12">
+        <v>43372.771527777775</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D11" s="12">
+        <v>43372.772916666669</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
-        <v>43363.481249999997</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D12" s="12">
+        <v>43372.774305613428</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12">
+        <v>43372.775694560187</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,297 +2712,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977B56E4-3945-4FDB-B019-47A3795DDAF8}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="142.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="119.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43363.470833333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13">
+      <c r="H10" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="12" t="s">
+    <row r="11" spans="1:8" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="B11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H11" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="12" t="s">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13">
+      <c r="H12" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="13">
-        <v>43363.470833333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="H13" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
@@ -1586,114 +3074,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF90BAE-F59E-4E65-B1A7-F447E917EADA}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18">
+      <c r="H2" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13">
+      <c r="H4" s="17">
         <v>43363.470833333333</v>
       </c>
     </row>
